--- a/resultaten MVS.xlsx
+++ b/resultaten MVS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos de Cloet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos de Cloet\Desktop\Multivariate Statistics\Assignment Multivariate Statistics\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE27AF0-E23C-4BD3-AE65-46D912B8BC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD018D4-0B9A-4F3A-A410-36ED6455E759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADD4153F-C206-4AE5-B004-46F674F8E21C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>p = 5</t>
   </si>
@@ -216,6 +216,54 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.146</t>
+  </si>
+  <si>
+    <t>0.1378</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.0533</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>p=10</t>
   </si>
 </sst>
 </file>
@@ -567,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD5BF8-0B35-4C2F-9A74-8FE254C0108C}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,6 +853,15 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" t="s">
         <v>59</v>
       </c>
@@ -822,6 +879,15 @@
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
@@ -836,6 +902,15 @@
       <c r="B17">
         <v>6</v>
       </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
@@ -873,6 +948,15 @@
       <c r="B20">
         <v>2</v>
       </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
       <c r="F20" t="s">
         <v>58</v>
       </c>
@@ -887,6 +971,15 @@
       <c r="B21">
         <v>4</v>
       </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" t="s">
         <v>56</v>
       </c>
@@ -901,6 +994,15 @@
       <c r="B22">
         <v>6</v>
       </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
@@ -909,6 +1011,50 @@
       </c>
       <c r="H22" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/resultaten MVS.xlsx
+++ b/resultaten MVS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos de Cloet\Desktop\Multivariate Statistics\Assignment Multivariate Statistics\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD018D4-0B9A-4F3A-A410-36ED6455E759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3FB39A-28A1-4C9D-A86C-625D6C5735C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADD4153F-C206-4AE5-B004-46F674F8E21C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>p = 5</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>p=10</t>
+  </si>
+  <si>
+    <t>0.1346</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>0.115</t>
   </si>
 </sst>
 </file>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD5BF8-0B35-4C2F-9A74-8FE254C0108C}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,10 +1063,63 @@
       <c r="B27">
         <v>4</v>
       </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/resultaten MVS.xlsx
+++ b/resultaten MVS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos de Cloet\Desktop\Multivariate Statistics\Assignment Multivariate Statistics\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3FB39A-28A1-4C9D-A86C-625D6C5735C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65B6EE-1A68-4F4A-BC5A-D7B923411D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADD4153F-C206-4AE5-B004-46F674F8E21C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>p = 5</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>0.115</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>sigma out</t>
+  </si>
+  <si>
+    <t>p = 2</t>
   </si>
 </sst>
 </file>
@@ -627,20 +639,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD5BF8-0B35-4C2F-9A74-8FE254C0108C}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="G26:H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -662,8 +674,29 @@
       <c r="H2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -688,8 +721,14 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -714,8 +753,14 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -737,8 +782,11 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>10</v>
       </c>
@@ -757,8 +805,29 @@
       <c r="H7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -783,8 +852,11 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -806,8 +878,11 @@
       <c r="H9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -829,13 +904,16 @@
       <c r="H10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -857,8 +935,29 @@
       <c r="H14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -883,8 +982,14 @@
       <c r="H15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -909,8 +1014,14 @@
       <c r="H16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -932,8 +1043,11 @@
       <c r="H17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>10</v>
       </c>
@@ -952,8 +1066,26 @@
       <c r="H19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -978,8 +1110,14 @@
       <c r="H20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>4</v>
       </c>
@@ -1001,8 +1139,11 @@
       <c r="H21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>6</v>
       </c>
@@ -1024,8 +1165,11 @@
       <c r="H22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1048,15 +1192,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
@@ -1075,7 +1222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>10</v>
       </c>
@@ -1095,15 +1242,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>

--- a/resultaten MVS.xlsx
+++ b/resultaten MVS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos de Cloet\Desktop\Multivariate Statistics\Assignment Multivariate Statistics\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65B6EE-1A68-4F4A-BC5A-D7B923411D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924164FA-2A9D-48D2-A0C5-1FC4155BA057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADD4153F-C206-4AE5-B004-46F674F8E21C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>p = 5</t>
   </si>
@@ -288,6 +288,87 @@
   </si>
   <si>
     <t>p = 2</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.5771</t>
+  </si>
+  <si>
+    <t>0.7123</t>
+  </si>
+  <si>
+    <t>geen outlier</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.145</t>
   </si>
 </sst>
 </file>
@@ -639,20 +720,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD5BF8-0B35-4C2F-9A74-8FE254C0108C}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -695,8 +776,11 @@
       <c r="Q2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -727,8 +811,23 @@
       <c r="K3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -759,8 +858,17 @@
       <c r="K4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -785,8 +893,17 @@
       <c r="K5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>10</v>
       </c>
@@ -827,7 +944,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -855,8 +972,20 @@
       <c r="K8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -881,8 +1010,17 @@
       <c r="K9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -907,13 +1045,22 @@
       <c r="K10">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -957,7 +1104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -988,8 +1135,14 @@
       <c r="K15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1019,6 +1172,12 @@
       </c>
       <c r="K16">
         <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1046,6 +1205,12 @@
       <c r="K17">
         <v>6</v>
       </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C19">
@@ -1116,6 +1281,12 @@
       <c r="K20">
         <v>2</v>
       </c>
+      <c r="M20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21">
@@ -1142,6 +1313,12 @@
       <c r="K21">
         <v>4</v>
       </c>
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22">
@@ -1167,6 +1344,12 @@
       </c>
       <c r="K22">
         <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">

--- a/resultaten MVS.xlsx
+++ b/resultaten MVS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos de Cloet\Desktop\Multivariate Statistics\Assignment Multivariate Statistics\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924164FA-2A9D-48D2-A0C5-1FC4155BA057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EFD03A-4703-4309-9C28-F2B5C89E4463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ADD4153F-C206-4AE5-B004-46F674F8E21C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>p = 5</t>
   </si>
@@ -296,12 +296,6 @@
     <t>0.588</t>
   </si>
   <si>
-    <t>0.5771</t>
-  </si>
-  <si>
-    <t>0.7123</t>
-  </si>
-  <si>
     <t>geen outlier</t>
   </si>
   <si>
@@ -369,6 +363,18 @@
   </si>
   <si>
     <t>0.145</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.095</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,13 +824,10 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" t="s">
         <v>87</v>
-      </c>
-      <c r="T3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -859,13 +862,13 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -900,7 +903,7 @@
         <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -973,16 +976,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
         <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1011,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -1046,13 +1046,13 @@
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -1135,6 +1135,9 @@
       <c r="K15">
         <v>2</v>
       </c>
+      <c r="L15" t="s">
+        <v>113</v>
+      </c>
       <c r="M15" t="s">
         <v>64</v>
       </c>
@@ -1173,11 +1176,14 @@
       <c r="K16">
         <v>4</v>
       </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,8 +1211,11 @@
       <c r="K17">
         <v>6</v>
       </c>
+      <c r="L17" t="s">
+        <v>110</v>
+      </c>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N17" t="s">
         <v>66</v>
@@ -1281,11 +1290,14 @@
       <c r="K20">
         <v>2</v>
       </c>
+      <c r="L20" t="s">
+        <v>112</v>
+      </c>
       <c r="M20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,11 +1325,14 @@
       <c r="K21">
         <v>4</v>
       </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
       <c r="M21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,11 +1360,14 @@
       <c r="K22">
         <v>6</v>
       </c>
+      <c r="L22" t="s">
+        <v>111</v>
+      </c>
       <c r="M22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
